--- a/seronetTemplates/template/experiments.xlsx
+++ b/seronetTemplates/template/experiments.xlsx
@@ -10,7 +10,9 @@
     <sheet name="lookup" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="lookupmeasurement_technique1061">lookup!$A$1:$A$60</definedName>
+    <definedName name="lookupmeasurement_technique1486">lookup!$A$1:$A$77</definedName>
+    <definedName name="lookupstudy_id1487">lookup!$A$78:$A$123</definedName>
+    <definedName name="lookupprotocol_ids1488">lookup!$A$124:$A$217</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -57,12 +59,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>experiments</t>
   </si>
   <si>
-    <t>Schema Version 3.35</t>
+    <t>Schema Version 3.36</t>
   </si>
   <si>
     <t>Please do not delete or edit this column</t>
@@ -107,6 +109,12 @@
     <t>Cell Culture</t>
   </si>
   <si>
+    <t>Cell Mediated Immunoassay</t>
+  </si>
+  <si>
+    <t>Chemiluminescent Assay</t>
+  </si>
+  <si>
     <t>Circular Dichroism</t>
   </si>
   <si>
@@ -140,6 +148,9 @@
     <t>Fluorescent Antibody Procedure</t>
   </si>
   <si>
+    <t>GC_MS</t>
+  </si>
+  <si>
     <t>Hemagglutination Inhibition</t>
   </si>
   <si>
@@ -149,18 +160,33 @@
     <t>HPLC</t>
   </si>
   <si>
+    <t>IgH Sequencing</t>
+  </si>
+  <si>
     <t>Immunoblot</t>
   </si>
   <si>
+    <t>Immunohistochemistry</t>
+  </si>
+  <si>
     <t>Immunoprecipitation</t>
   </si>
   <si>
     <t>in situ Hybridization</t>
   </si>
   <si>
+    <t>Iontrap_MS</t>
+  </si>
+  <si>
     <t>KIR Typing</t>
   </si>
   <si>
+    <t>Lateral Flow Assay</t>
+  </si>
+  <si>
+    <t>LC_MS</t>
+  </si>
+  <si>
     <t>Line Probe Assay</t>
   </si>
   <si>
@@ -176,6 +202,9 @@
     <t>Meso Scale Discovery ECL</t>
   </si>
   <si>
+    <t>Methylation Sequencing</t>
+  </si>
+  <si>
     <t>microRNA profiling assay</t>
   </si>
   <si>
@@ -188,6 +217,15 @@
     <t>Molecular Cloning</t>
   </si>
   <si>
+    <t>MS_MS</t>
+  </si>
+  <si>
+    <t>Multiplex Bead Array Assay</t>
+  </si>
+  <si>
+    <t>Multiplex Immunoassay</t>
+  </si>
+  <si>
     <t>Nanostring</t>
   </si>
   <si>
@@ -200,6 +238,9 @@
     <t>Northern Blot</t>
   </si>
   <si>
+    <t>Not Specified</t>
+  </si>
+  <si>
     <t>O link</t>
   </si>
   <si>
@@ -212,9 +253,15 @@
     <t>phage display binding assay</t>
   </si>
   <si>
+    <t>Plaque Reduction Neutralization Assay</t>
+  </si>
+  <si>
     <t>Protein microarray</t>
   </si>
   <si>
+    <t>Pseudovirus Neutralization Assay</t>
+  </si>
+  <si>
     <t>Q-PCR</t>
   </si>
   <si>
@@ -227,6 +274,12 @@
     <t>Rnase Protection Assay</t>
   </si>
   <si>
+    <t>SARS-CoV-2 Virus Sequencing</t>
+  </si>
+  <si>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
     <t>Sequencing</t>
   </si>
   <si>
@@ -264,6 +317,420 @@
   </si>
   <si>
     <t>Yeast Two Hybrid</t>
+  </si>
+  <si>
+    <t>PMID33035201</t>
+  </si>
+  <si>
+    <t>PMID33065030</t>
+  </si>
+  <si>
+    <t>PMID33142304</t>
+  </si>
+  <si>
+    <t>PMID33160316</t>
+  </si>
+  <si>
+    <t>PMID33169014</t>
+  </si>
+  <si>
+    <t>PMID33276369</t>
+  </si>
+  <si>
+    <t>PMID33408181_study</t>
+  </si>
+  <si>
+    <t>PMID33440148</t>
+  </si>
+  <si>
+    <t>PMID33472939</t>
+  </si>
+  <si>
+    <t>PMID33478949</t>
+  </si>
+  <si>
+    <t>PMID33479118</t>
+  </si>
+  <si>
+    <t>PMID33521695</t>
+  </si>
+  <si>
+    <t>PMID33571162</t>
+  </si>
+  <si>
+    <t>PMID33602725</t>
+  </si>
+  <si>
+    <t>PMID33622794_study-01</t>
+  </si>
+  <si>
+    <t>PMID33666169</t>
+  </si>
+  <si>
+    <t>PMID33727353</t>
+  </si>
+  <si>
+    <t>PMID33743211</t>
+  </si>
+  <si>
+    <t>PMID33830946</t>
+  </si>
+  <si>
+    <t>PMID33846272_study-01</t>
+  </si>
+  <si>
+    <t>PMID33961839</t>
+  </si>
+  <si>
+    <t>PMID33993265_study-01</t>
+  </si>
+  <si>
+    <t>PMID34003112</t>
+  </si>
+  <si>
+    <t>PMID34086877_study-01</t>
+  </si>
+  <si>
+    <t>PMID34095338</t>
+  </si>
+  <si>
+    <t>PMID34100011</t>
+  </si>
+  <si>
+    <t>PMID34130883</t>
+  </si>
+  <si>
+    <t>PMID34145263</t>
+  </si>
+  <si>
+    <t>PMID34151306</t>
+  </si>
+  <si>
+    <t>PMID34161961_study-01</t>
+  </si>
+  <si>
+    <t>PMID34353890</t>
+  </si>
+  <si>
+    <t>PMID34452006_study-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_study-01</t>
+  </si>
+  <si>
+    <t>PMID34687893_study-011</t>
+  </si>
+  <si>
+    <t>PMID34696403</t>
+  </si>
+  <si>
+    <t>PMID34730254</t>
+  </si>
+  <si>
+    <t>PMID34759001_study</t>
+  </si>
+  <si>
+    <t>PMID34794169_study-01</t>
+  </si>
+  <si>
+    <t>PMID34802457</t>
+  </si>
+  <si>
+    <t>PMID34835131</t>
+  </si>
+  <si>
+    <t>PMID34877479</t>
+  </si>
+  <si>
+    <t>PMID34910927_study-01</t>
+  </si>
+  <si>
+    <t>PMID34921308</t>
+  </si>
+  <si>
+    <t>PMID34952892_study-01</t>
+  </si>
+  <si>
+    <t>PMID35132398_study-01</t>
+  </si>
+  <si>
+    <t>33288645_protocol</t>
+  </si>
+  <si>
+    <t>PMID32941787_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33035201_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33065030_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33115920_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33142304_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33142304_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID33142304_protocol_01</t>
+  </si>
+  <si>
+    <t>PMID33160316_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33169014_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33169014_protocol-01 SC</t>
+  </si>
+  <si>
+    <t>PMID33184236_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33207184_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33211672_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33276369_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33288645_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33408181_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33408181_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID33427208_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33440148_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33472939_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33476549_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33478949_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33479118_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33495307_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33509841_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33521695_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33547084_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33571162_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33571162_protocol_01</t>
+  </si>
+  <si>
+    <t>PMID33579769_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33589636_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33589825_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33602725_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33622794_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33666169_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33688034_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33704352_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33720347_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33727331_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33727353_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33735607_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33743211_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33775692_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33795870_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33822097_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33830946_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33846272_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33846272_protocol-11</t>
+  </si>
+  <si>
+    <t>PMID33893169_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33915337_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33932848_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33947773_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33961839_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33971664_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33983379_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33993265_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34003112_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34047304_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34056628_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34075366_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34086877_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34095338_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34100011_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34115964_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34130883_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34131024_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34133941_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34145263_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34151306_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34161961_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34230917_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34250512_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34270939_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34353890_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34452006_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID34687893_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34687893_protocol-011</t>
+  </si>
+  <si>
+    <t>PMID34696403_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34696403_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID34730254_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34759001_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34794169_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34802457_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34835131_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34877479_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34877479_protocol-011</t>
+  </si>
+  <si>
+    <t>PMID34910927_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34921308_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34952892_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID35132398_protocol-01</t>
   </si>
 </sst>
 </file>
@@ -2559,9 +3026,15 @@
       <c r="G200" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" sqref="E4:E201" allowBlank="true" errorStyle="stop" promptTitle="Measurement Technique" prompt="Please choose required value from the list" errorTitle="Measurement Technique" error="Required value was not selected" showInputMessage="true">
-      <formula1>lookupmeasurement_technique1061</formula1>
+      <formula1>lookupmeasurement_technique1486</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F4:F201" allowBlank="true" errorStyle="information" promptTitle="Study ID" prompt="Please choose user defined ID value from the list" errorTitle="Study ID" error="User defined ID value not selected" showInputMessage="true">
+      <formula1>lookupstudy_id1487</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G4:G201" allowBlank="true" errorStyle="information" promptTitle="Protocol ID(s)" prompt="Please choose user defined ID value from the list" errorTitle="Protocol ID(s)" error="User defined ID value not selected" showInputMessage="true">
+      <formula1>lookupprotocol_ids1488</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2572,7 +3045,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:A60"/>
+  <dimension ref="A2:A217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2873,6 +3346,781 @@
         <v>68</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
